--- a/Documentation/CardProtocol.xlsx
+++ b/Documentation/CardProtocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="13">
   <si>
     <t>Block</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Byte Number</t>
+  </si>
+  <si>
+    <t>keyA is leftmost 6 (when read, returns 0)</t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66:T66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,25 +774,28 @@
         <v>69</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -904,25 +910,25 @@
         <v>69</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1024,25 +1030,25 @@
         <v>69</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -1144,25 +1150,25 @@
         <v>69</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.3">
@@ -1264,25 +1270,25 @@
         <v>69</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.3">
@@ -1384,25 +1390,25 @@
         <v>69</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.3">
@@ -1504,25 +1510,25 @@
         <v>69</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.3">
@@ -1624,25 +1630,25 @@
         <v>69</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="4:20" x14ac:dyDescent="0.3">
@@ -1744,25 +1750,25 @@
         <v>69</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="4:20" x14ac:dyDescent="0.3">
@@ -1864,25 +1870,25 @@
         <v>69</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="4:20" x14ac:dyDescent="0.3">
@@ -1984,25 +1990,25 @@
         <v>69</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="4:20" x14ac:dyDescent="0.3">
@@ -2104,25 +2110,25 @@
         <v>69</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="4:20" x14ac:dyDescent="0.3">
@@ -2224,25 +2230,25 @@
         <v>69</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T54" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="4:20" x14ac:dyDescent="0.3">
@@ -2344,25 +2350,25 @@
         <v>69</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T58" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="4:20" x14ac:dyDescent="0.3">
@@ -2464,25 +2470,25 @@
         <v>69</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="4:20" x14ac:dyDescent="0.3">
@@ -2584,25 +2590,25 @@
         <v>69</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T66" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/CardProtocol.xlsx
+++ b/Documentation/CardProtocol.xlsx
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -230,6 +230,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66:T66"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,35 +767,35 @@
       <c r="J6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7">
         <v>7</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>80</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>69</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="O6" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>12</v>
@@ -900,17 +903,17 @@
       <c r="J10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="7">
         <v>7</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <v>80</v>
       </c>
-      <c r="M10" s="7">
+      <c r="N10" s="7">
         <v>69</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>1</v>
@@ -1020,17 +1023,17 @@
       <c r="J14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="7">
         <v>7</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>80</v>
       </c>
-      <c r="M14" s="7">
+      <c r="N14" s="7">
         <v>69</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>1</v>
@@ -1140,17 +1143,17 @@
       <c r="J18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="7">
         <v>7</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>80</v>
       </c>
-      <c r="M18" s="7">
+      <c r="N18" s="7">
         <v>69</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>1</v>
@@ -1260,17 +1263,17 @@
       <c r="J22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="7">
         <v>7</v>
       </c>
-      <c r="L22" s="7">
+      <c r="M22" s="7">
         <v>80</v>
       </c>
-      <c r="M22" s="7">
+      <c r="N22" s="7">
         <v>69</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>1</v>
@@ -1380,17 +1383,17 @@
       <c r="J26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="7">
         <v>7</v>
       </c>
-      <c r="L26" s="7">
+      <c r="M26" s="7">
         <v>80</v>
       </c>
-      <c r="M26" s="7">
+      <c r="N26" s="7">
         <v>69</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>1</v>
@@ -1500,17 +1503,17 @@
       <c r="J30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="7">
         <v>7</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <v>80</v>
       </c>
-      <c r="M30" s="7">
+      <c r="N30" s="7">
         <v>69</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>1</v>
@@ -1620,17 +1623,17 @@
       <c r="J34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="7">
         <v>7</v>
       </c>
-      <c r="L34" s="7">
+      <c r="M34" s="7">
         <v>80</v>
       </c>
-      <c r="M34" s="7">
+      <c r="N34" s="7">
         <v>69</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>1</v>
@@ -1740,17 +1743,17 @@
       <c r="J38" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="7">
         <v>7</v>
       </c>
-      <c r="L38" s="7">
+      <c r="M38" s="7">
         <v>80</v>
       </c>
-      <c r="M38" s="7">
+      <c r="N38" s="7">
         <v>69</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>1</v>
@@ -1860,17 +1863,17 @@
       <c r="J42" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="7">
         <v>7</v>
       </c>
-      <c r="L42" s="7">
+      <c r="M42" s="7">
         <v>80</v>
       </c>
-      <c r="M42" s="7">
+      <c r="N42" s="7">
         <v>69</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>1</v>
@@ -1980,17 +1983,17 @@
       <c r="J46" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="7">
         <v>7</v>
       </c>
-      <c r="L46" s="7">
+      <c r="M46" s="7">
         <v>80</v>
       </c>
-      <c r="M46" s="7">
+      <c r="N46" s="7">
         <v>69</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>1</v>
@@ -2100,17 +2103,17 @@
       <c r="J50" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" s="7">
         <v>7</v>
       </c>
-      <c r="L50" s="7">
+      <c r="M50" s="7">
         <v>80</v>
       </c>
-      <c r="M50" s="7">
+      <c r="N50" s="7">
         <v>69</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>1</v>
@@ -2220,17 +2223,17 @@
       <c r="J54" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" s="7">
         <v>7</v>
       </c>
-      <c r="L54" s="7">
+      <c r="M54" s="7">
         <v>80</v>
       </c>
-      <c r="M54" s="7">
+      <c r="N54" s="7">
         <v>69</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>1</v>
@@ -2340,17 +2343,17 @@
       <c r="J58" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58" s="7">
         <v>7</v>
       </c>
-      <c r="L58" s="7">
+      <c r="M58" s="7">
         <v>80</v>
       </c>
-      <c r="M58" s="7">
+      <c r="N58" s="7">
         <v>69</v>
-      </c>
-      <c r="N58" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O58" s="7" t="s">
         <v>1</v>
@@ -2460,17 +2463,17 @@
       <c r="J62" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L62" s="7">
         <v>7</v>
       </c>
-      <c r="L62" s="7">
+      <c r="M62" s="7">
         <v>80</v>
       </c>
-      <c r="M62" s="7">
+      <c r="N62" s="7">
         <v>69</v>
-      </c>
-      <c r="N62" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O62" s="7" t="s">
         <v>1</v>
@@ -2580,17 +2583,17 @@
       <c r="J66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L66" s="7">
         <v>7</v>
       </c>
-      <c r="L66" s="7">
+      <c r="M66" s="7">
         <v>80</v>
       </c>
-      <c r="M66" s="7">
+      <c r="N66" s="7">
         <v>69</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>1</v>

--- a/Documentation/CardProtocol.xlsx
+++ b/Documentation/CardProtocol.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="13">
-  <si>
-    <t>Block</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="11">
   <si>
     <t>-</t>
   </si>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>time3</t>
-  </si>
-  <si>
-    <t>machineID == block number</t>
   </si>
   <si>
     <t>class?</t>
@@ -550,7 +544,7 @@
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +569,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -637,67 +631,64 @@
         <v>15</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
       <c r="D3" s="12">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -750,25 +741,25 @@
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="7">
         <v>7</v>
@@ -780,25 +771,25 @@
         <v>69</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -829,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -843,19 +834,16 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -886,25 +874,25 @@
         <v>7</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="7">
         <v>7</v>
@@ -1006,25 +994,25 @@
         <v>11</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="7">
         <v>7</v>
@@ -1126,25 +1114,25 @@
         <v>15</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="7">
         <v>7</v>
@@ -1246,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" s="7">
         <v>7</v>
@@ -1366,25 +1354,25 @@
         <v>23</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" s="7">
         <v>7</v>
@@ -1486,25 +1474,25 @@
         <v>27</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" s="7">
         <v>7</v>
@@ -1606,25 +1594,25 @@
         <v>31</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" s="7">
         <v>7</v>
@@ -1726,25 +1714,25 @@
         <v>35</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" s="7">
         <v>7</v>
@@ -1846,25 +1834,25 @@
         <v>39</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" s="7">
         <v>7</v>
@@ -1966,25 +1954,25 @@
         <v>43</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" s="7">
         <v>7</v>
@@ -2086,25 +2074,25 @@
         <v>47</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50" s="7">
         <v>7</v>
@@ -2206,25 +2194,25 @@
         <v>51</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54" s="7">
         <v>7</v>
@@ -2326,25 +2314,25 @@
         <v>55</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" s="7">
         <v>7</v>
@@ -2446,25 +2434,25 @@
         <v>59</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62" s="7">
         <v>7</v>
@@ -2566,25 +2554,25 @@
         <v>63</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" s="7">
         <v>7</v>
